--- a/Mustervorlage.xlsx
+++ b/Mustervorlage.xlsx
@@ -1,75 +1,340 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
-  <workbookPr codeName="DieseArbeitsmappe" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sebastian\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hemsde.sharepoint.com/sites/HEMSintranet/Schulformen/fos/FOS Repository/03 Veranstaltungen Abschlussprüfung und  Zeugnisse/Terminplanung/2023_24/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F0575-5CBD-4DD2-9002-69A4823B46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="349" documentId="8_{15C477F3-C035-409A-A96E-1B02123EB15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5CF7A7C-0A4A-43E0-AA5A-DFBA5A9418ED}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23240" yWindow="2260" windowWidth="21600" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <definedNames>
+    <definedName name="Print_Area" localSheetId="0">Tabelle1!$A$1:$H$62</definedName>
+    <definedName name="print2" localSheetId="0">Tabelle1!$A$1:$H$62</definedName>
+    <definedName name="print3" localSheetId="0">Tabelle1!$A$1:$H$63</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>BG - Abgabe der Kurshefte</t>
-  </si>
-  <si>
-    <t>BG - Abgabe aller Kurshefte des Schuljahres 2016/17 im Sekretariat</t>
-  </si>
-  <si>
-    <t>Elternabend</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weihnachtsferien</t>
+  </si>
+  <si>
+    <t>Osterferien</t>
+  </si>
+  <si>
+    <t>Sommerferien</t>
   </si>
   <si>
     <t>Herbstferien</t>
   </si>
   <si>
-    <t>C 212</t>
-  </si>
-  <si>
-    <t>Betreff</t>
-  </si>
-  <si>
-    <t>Beginnt am</t>
-  </si>
-  <si>
-    <t>Beginnt um</t>
-  </si>
-  <si>
-    <t>Endet am</t>
-  </si>
-  <si>
-    <t>Endet um</t>
-  </si>
-  <si>
-    <t>Beschreibung</t>
-  </si>
-  <si>
-    <t>Ort</t>
-  </si>
-  <si>
-    <t>Studienfahrtenwoche 2019/17</t>
+    <t>Fachoberschule</t>
+  </si>
+  <si>
+    <t>GK, anschließend FOS Dienstbesprechung</t>
+  </si>
+  <si>
+    <t>Einschulung FOS</t>
+  </si>
+  <si>
+    <t>1. Schulformkonferenz</t>
+  </si>
+  <si>
+    <t>KL</t>
+  </si>
+  <si>
+    <t>1. Kontaktaufnahme mit Betrieben</t>
+  </si>
+  <si>
+    <t>Besprechung der Unterrichtsleistungen</t>
+  </si>
+  <si>
+    <t>Besprechung Halbjahresnoten</t>
+  </si>
+  <si>
+    <t>2. Halbjahr</t>
+  </si>
+  <si>
+    <t>1. Halbjahr</t>
+  </si>
+  <si>
+    <t>Tag der Arbeit</t>
+  </si>
+  <si>
+    <t>ZAP Englisch, 9:00 Uhr</t>
+  </si>
+  <si>
+    <t>ZAP Deutsch, 9:00 Uhr</t>
+  </si>
+  <si>
+    <t>Genehmigung durch die Klassenkonferenz</t>
+  </si>
+  <si>
+    <t>ZAP Mathematik, 9:00 Uhr</t>
+  </si>
+  <si>
+    <t>Prüfungen gem. Aushang</t>
+  </si>
+  <si>
+    <t>2. Sitzung des Prüfungsausschusses</t>
+  </si>
+  <si>
+    <t>3. Sitzung des Prüfungsausschusses</t>
+  </si>
+  <si>
+    <t>Unterrichtsschluss nach der 3. Stunde</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Fr</t>
+  </si>
+  <si>
+    <t>KL - Kopie in Schülerakte
+Unterrichtsschluss nach der 3. Stunde</t>
+  </si>
+  <si>
+    <t>unterrichtsfrei</t>
+  </si>
+  <si>
+    <t>FOS11A2 / FOS12: Halbjahreszeugnisausgabe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS11: Abgabe 1. Praktikumsbericht </t>
+  </si>
+  <si>
+    <t>FOS11 / FOS12: Besprechung der Unterrichtsleistungen</t>
+  </si>
+  <si>
+    <t>FOS11: Elternbenachrichtigung bei Zulassungsgefährdung (Blaue Briefe)</t>
+  </si>
+  <si>
+    <t>ZAP Elektrotechnik, 9:00 Uhr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS12: Antrag auf freiwillige Wiederholung </t>
+  </si>
+  <si>
+    <t>FOS12: Besprechung der Unterrichtsleistungen 2. Halbjahr</t>
+  </si>
+  <si>
+    <t>Abgabe der Prüfungsarbeiten bei AL</t>
+  </si>
+  <si>
+    <t>FOS12: Meldung zur mündlichen Prüfung gem. §24 (3)</t>
+  </si>
+  <si>
+    <t>FOS12: Bücherabgabe</t>
+  </si>
+  <si>
+    <t>FOS11: Besprechung der Unterrichtleistungen 2. Halbjahr</t>
+  </si>
+  <si>
+    <t>FOS11: Abgabe 
+2. Praktikumsbericht</t>
+  </si>
+  <si>
+    <t>FOS11: Zulassungskonferenz gem. §12</t>
+  </si>
+  <si>
+    <t>FOS12: Prüflesung der 
+Abschlusszeugnisse</t>
+  </si>
+  <si>
+    <t>Anwesenheitspflicht aller FOS12 
+Schüler</t>
+  </si>
+  <si>
+    <t>FOS12: Zeugnisübergabe und Abschlussfeier</t>
+  </si>
+  <si>
+    <t>FOS11A2: Bücherabgabe</t>
+  </si>
+  <si>
+    <t>1. Elternabend FOS11</t>
+  </si>
+  <si>
+    <t>Hobit online</t>
+  </si>
+  <si>
+    <t>SuS FOS11 1 Tag unter Anleitung KL 
+SuS FOS12 (2 aus 3 Tagen mit Anwesenheitsnachweis - online nicht nötig)</t>
+  </si>
+  <si>
+    <t>1. Sitzung des Prüfungsausschusses gemäß §16</t>
+  </si>
+  <si>
+    <t>B0.05</t>
+  </si>
+  <si>
+    <t>Pfingstmontag</t>
+  </si>
+  <si>
+    <t>FOS12: Bekanntgabe Prüfungsleistungen / Unterrichtsende gem. §23 (4)</t>
+  </si>
+  <si>
+    <t>FOS11: Eintragung der Notenpunkte in LUSD in Absprache mit buc</t>
+  </si>
+  <si>
+    <t>FOS11: Vorlagen für Praktikumszeugnisse an Betriebe</t>
+  </si>
+  <si>
+    <t>Vorbereitung auf die Hobit mit Hr. Heckmann</t>
+  </si>
+  <si>
+    <t>FOS11A2: Zeugnisausgabe (Kopie in Schülerakte)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stand:  </t>
+  </si>
+  <si>
+    <t>alle Lehrkräfte</t>
+  </si>
+  <si>
+    <t>alle Lehrkräfte; Durchführung mit Vermerk im Klassenbuch (Info an KL bei Minderleistung!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">alle Lehrkräfte; Durchführung mit Vermerk im Klassenbuch </t>
+  </si>
+  <si>
+    <t>ET Lehrkräfte; KL; AL</t>
+  </si>
+  <si>
+    <t>Fronleichnam + bewg. Ferientag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOS12: Info über die Zentrale Abschlussprüfung (§15 APrO-FOS) </t>
+  </si>
+  <si>
+    <t>FOS12: Mündliche Prüfungen gem. §25</t>
+  </si>
+  <si>
+    <t>LK: Eintragung der Notenpunkte in Listen der KL; KL: Eintragung aller Daten in LUSD (Termin vereinbaren mit buc)</t>
+  </si>
+  <si>
+    <t>Terminplan für das Schuljahr 2023/24</t>
+  </si>
+  <si>
+    <t>Einführungstag FOS12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pädagogische Klassenkonferenzen </t>
+  </si>
+  <si>
+    <t>Lehrkräfte FOS11 + 12; Einladung erfolgt durch KL</t>
+  </si>
+  <si>
+    <t>13:30 Uhr FOS12B1; 14:15 Uhr  FOS11A1; 15:00 Uhr FOS11A2; Raum A2.20</t>
+  </si>
+  <si>
+    <t>Hospitationstage FOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raum B0.05
+Vermerk im Klassenbuch </t>
+  </si>
+  <si>
+    <t>Rosenmontag</t>
+  </si>
+  <si>
+    <t>3./4. Stunde - Termin mit ren</t>
+  </si>
+  <si>
+    <t>3. Std. - AL koordiniert Termin mit ren</t>
+  </si>
+  <si>
+    <t>FOS11A1: Bücherabgabe</t>
+  </si>
+  <si>
+    <t>AL koordiniert Termin mit ren</t>
+  </si>
+  <si>
+    <t>FOS11A1: Zeugnisausgabe (Kopie in Schülerakte)</t>
+  </si>
+  <si>
+    <t>alle Lehrkräfte, die in der FOS11 unterrichten: 13.30 Uhr FOS11A2; 14.15 Uhr FOS11A1 - Raum A2.20</t>
+  </si>
+  <si>
+    <t>KL FOS11; Anschreiben + Flyer + Praktikumszeugnisvorlage (siehe SharePoint)</t>
+  </si>
+  <si>
+    <t>Christi Himmelfahrt und beweglicher Ferientag</t>
+  </si>
+  <si>
+    <t>Vorlagen auf SharePoint
+KL</t>
+  </si>
+  <si>
+    <t>Schriftliche Nachprüfungen ZAP</t>
+  </si>
+  <si>
+    <t>FOS12: Eintragung der Vornoten und Prüfungsleistungen in LUSD in Absprache mit buc</t>
+  </si>
+  <si>
+    <t>Vorlagen auf Klassenlehrerkurs auf SharePoint</t>
+  </si>
+  <si>
+    <t>Abgabe der Prüfungsarbeiten zur Zweitkorrektur / Mathematik Ringtausch</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Klassenkonferenz /Pädagogische Konferenz
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>Vermerk im Zeugnis: Versetzung gefährdet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="165" formatCode="h:mm;@"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="ddd"/>
+    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,20 +348,188 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FF0000FF"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="6"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="6"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Calibri"/>
+      <name val="Verdana"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Verdana"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -111,12 +544,35 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -139,82 +595,1077 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dashed">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="206">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="25" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="24" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="11" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="15" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="30" fillId="7" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="17" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Gut" xfId="2" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard_Abt. 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <condense val="0"/>
+        <extend val="0"/>
+        <color indexed="9"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FF99FFCC"/>
+      <color rgb="FF66FF66"/>
+      <color rgb="FF00FF00"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -226,10 +1677,80 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>15878</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>570288</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>289</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Grafik 1" descr="Hems Logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9F36912-A5C0-3B58-FF47-44F5A7FE21AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="15878" y="0"/>
+          <a:ext cx="554410" cy="404380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -267,9 +1788,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -302,26 +1823,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -354,26 +1858,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -547,121 +2034,1666 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Tabelle1"/>
-  <dimension ref="A1:H5"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.44140625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.88671875" style="9" customWidth="1"/>
-    <col min="8" max="8" width="8.44140625" style="17" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.44140625" style="9"/>
+    <col min="1" max="1" width="10.5703125" style="118" customWidth="1"/>
+    <col min="2" max="2" width="3.5703125" style="126" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" style="64" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="119" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="44" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="120" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" style="124" customWidth="1"/>
+    <col min="8" max="8" width="31.5703125" style="153" customWidth="1"/>
+    <col min="9" max="16384" width="11.5703125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="175" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="176"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="132" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="178"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="180"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="133">
+        <f ca="1">TODAY()</f>
+        <v>45189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="A3" s="189" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="189"/>
+      <c r="C3" s="189"/>
+      <c r="D3" s="189"/>
+      <c r="E3" s="189"/>
+      <c r="F3" s="189"/>
+      <c r="G3" s="189"/>
+      <c r="H3" s="190"/>
+    </row>
+    <row r="4" spans="1:8" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="197" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="197"/>
+      <c r="C4" s="197"/>
+      <c r="D4" s="197"/>
+      <c r="E4" s="197"/>
+      <c r="F4" s="197"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="198"/>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>45170</v>
+      </c>
+      <c r="B5" s="4">
+        <f>A5</f>
+        <v>45170</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="159" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="H5" s="134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>45173</v>
+      </c>
+      <c r="B6" s="4">
+        <f>A6</f>
+        <v>45173</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="159" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="H6" s="134"/>
+    </row>
+    <row r="7" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>45174</v>
+      </c>
+      <c r="B7" s="4">
+        <f>A7</f>
+        <v>45174</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="D7" s="65"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="174">
+        <v>0.5625</v>
+      </c>
+      <c r="G7" s="159" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="134" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>45189</v>
+      </c>
+      <c r="B8" s="4">
+        <f>A8</f>
+        <v>45189</v>
+      </c>
+      <c r="C8" s="10">
+        <v>0.5625</v>
+      </c>
+      <c r="D8" s="65"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="67"/>
+      <c r="G8" s="159" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="H8" s="134" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="68">
+        <v>45211</v>
+      </c>
+      <c r="B9" s="37">
+        <f>A9</f>
+        <v>45211</v>
+      </c>
+      <c r="C9" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="160" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" s="135" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="5" t="s">
+    </row>
+    <row r="10" spans="1:8" s="24" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>45208</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" ref="B10" si="0">A10</f>
+        <v>45208</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="6">
+        <v>45219</v>
+      </c>
+      <c r="E10" s="34">
+        <f>D10</f>
+        <v>45219</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="161" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H10" s="136" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="71">
+        <v>45222</v>
+      </c>
+      <c r="B11" s="130">
+        <f>A11</f>
+        <v>45222</v>
+      </c>
+      <c r="C11" s="47"/>
+      <c r="D11" s="72">
+        <v>45226</v>
+      </c>
+      <c r="E11" s="15">
+        <f t="shared" ref="E11" si="1">D11</f>
+        <v>45226</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="185" t="s">
+        <v>4</v>
+      </c>
+      <c r="H11" s="186"/>
+    </row>
+    <row r="12" spans="1:8" s="127" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8">
+        <v>45229</v>
+      </c>
+      <c r="B12" s="9">
+        <f>A12</f>
+        <v>45229</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="11">
+        <v>45233</v>
+      </c>
+      <c r="E12" s="34">
+        <f>D12</f>
+        <v>45233</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="162" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="H12" s="137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="25" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8">
+        <v>45243</v>
+      </c>
+      <c r="B13" s="9">
+        <f>A13</f>
+        <v>45243</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11">
+        <v>45247</v>
+      </c>
+      <c r="E13" s="34">
+        <f>D13</f>
+        <v>45247</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="162" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="137" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>45285</v>
+      </c>
+      <c r="B14" s="171">
+        <f t="shared" ref="B14:B17" si="2">A14</f>
+        <v>45285</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="14">
+        <v>45303</v>
+      </c>
+      <c r="E14" s="15">
+        <f t="shared" ref="E14:E62" si="3">D14</f>
+        <v>45303</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="185" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="186"/>
+    </row>
+    <row r="15" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73">
+        <v>45306</v>
+      </c>
+      <c r="B15" s="38">
+        <f t="shared" si="2"/>
+        <v>45306</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="74">
+        <v>45310</v>
+      </c>
+      <c r="E15" s="34">
+        <f t="shared" si="3"/>
+        <v>45310</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="161" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="134" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="52.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="73">
+        <v>45313</v>
+      </c>
+      <c r="B16" s="38">
+        <f t="shared" si="2"/>
+        <v>45313</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="74">
+        <v>45315</v>
+      </c>
+      <c r="E16" s="75">
+        <f>D16</f>
+        <v>45315</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="161" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="136" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="76">
+        <v>45314</v>
+      </c>
+      <c r="B17" s="38">
+        <f t="shared" si="2"/>
+        <v>45314</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="H17" s="134"/>
+    </row>
+    <row r="18" spans="1:8" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>45315</v>
+      </c>
+      <c r="B18" s="4">
+        <f>A18</f>
+        <v>45315</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="6">
+        <v>45317</v>
+      </c>
+      <c r="E18" s="75">
+        <f>D18</f>
+        <v>45317</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="163" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" s="138" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A19" s="76">
+        <v>45316</v>
+      </c>
+      <c r="B19" s="4">
+        <f>A19</f>
+        <v>45316</v>
+      </c>
+      <c r="C19" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="163" t="s">
+        <v>86</v>
+      </c>
+      <c r="H19" s="134" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>45320</v>
+      </c>
+      <c r="B20" s="4">
+        <f>A20</f>
+        <v>45320</v>
+      </c>
+      <c r="C20" s="7">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D20" s="6">
+        <v>45323</v>
+      </c>
+      <c r="E20" s="75">
+        <f>D20</f>
+        <v>45323</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="161" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="134"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="77">
+        <v>45324</v>
+      </c>
+      <c r="B21" s="39">
+        <f>A21</f>
+        <v>45324</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="78"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="80"/>
+      <c r="G21" s="164" t="s">
+        <v>28</v>
+      </c>
+      <c r="H21" s="139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="26" customFormat="1" ht="14.25" x14ac:dyDescent="0.25">
+      <c r="A22" s="193" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="194"/>
+      <c r="C22" s="195"/>
+      <c r="D22" s="195"/>
+      <c r="E22" s="195"/>
+      <c r="F22" s="195"/>
+      <c r="G22" s="195"/>
+      <c r="H22" s="196"/>
+    </row>
+    <row r="23" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="81">
+        <v>45327</v>
+      </c>
+      <c r="B23" s="4">
+        <f>A23</f>
+        <v>45327</v>
+      </c>
+      <c r="C23" s="49"/>
+      <c r="D23" s="82">
+        <v>45331</v>
+      </c>
+      <c r="E23" s="83" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" s="49"/>
+      <c r="G23" s="165" t="s">
+        <v>29</v>
+      </c>
+      <c r="H23" s="140" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="86">
+        <v>45334</v>
+      </c>
+      <c r="B24" s="40">
+        <f t="shared" ref="B24" si="4">A24</f>
+        <v>45334</v>
+      </c>
+      <c r="C24" s="51"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="166" t="s">
+        <v>72</v>
+      </c>
+      <c r="H24" s="141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="23" customFormat="1" ht="42" x14ac:dyDescent="0.25">
+      <c r="A25" s="76">
+        <v>45337</v>
+      </c>
+      <c r="B25" s="4">
+        <f t="shared" ref="B25:B40" si="5">A25</f>
+        <v>45337</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D25" s="84"/>
+      <c r="E25" s="85"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="163" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="142" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="23" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>45369</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="5"/>
+        <v>45369</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="6">
+        <v>45373</v>
+      </c>
+      <c r="E26" s="75">
+        <f>D26</f>
+        <v>45373</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="161" t="s">
+        <v>30</v>
+      </c>
+      <c r="H26" s="137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="30" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>45376</v>
+      </c>
+      <c r="B27" s="15">
+        <f t="shared" ref="B27" si="6">A27</f>
+        <v>45376</v>
+      </c>
+      <c r="C27" s="16"/>
+      <c r="D27" s="17">
+        <v>45394</v>
+      </c>
+      <c r="E27" s="15">
+        <f t="shared" ref="E27" si="7">D27</f>
+        <v>45394</v>
+      </c>
+      <c r="F27" s="16"/>
+      <c r="G27" s="185" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="186"/>
+    </row>
+    <row r="28" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>45397</v>
+      </c>
+      <c r="B28" s="4">
+        <f t="shared" si="5"/>
+        <v>45397</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="6">
+        <v>45401</v>
+      </c>
+      <c r="E28" s="75">
+        <f>D28</f>
+        <v>45401</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="161" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="138" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" s="26" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="77">
+        <v>45399</v>
+      </c>
+      <c r="B29" s="39">
+        <f>A29</f>
+        <v>45399</v>
+      </c>
+      <c r="C29" s="48"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="80"/>
+      <c r="G29" s="164" t="s">
+        <v>33</v>
+      </c>
+      <c r="H29" s="143" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="128">
+        <v>45412</v>
+      </c>
+      <c r="B30" s="38">
+        <f>A30</f>
+        <v>45412</v>
+      </c>
+      <c r="C30" s="46">
+        <v>0.5625</v>
+      </c>
+      <c r="D30" s="98"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="183" t="s">
+        <v>48</v>
+      </c>
+      <c r="H30" s="184"/>
+    </row>
+    <row r="31" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="86">
+        <v>45413</v>
+      </c>
+      <c r="B31" s="40">
+        <f t="shared" si="5"/>
+        <v>45413</v>
+      </c>
+      <c r="C31" s="52"/>
+      <c r="D31" s="90"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31" s="141" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="94">
+        <v>45421</v>
+      </c>
+      <c r="B32" s="42">
+        <f t="shared" ref="B32" si="8">A32</f>
+        <v>45421</v>
+      </c>
+      <c r="C32" s="54"/>
+      <c r="D32" s="95">
+        <v>45422</v>
+      </c>
+      <c r="E32" s="96">
+        <f>D32</f>
+        <v>45422</v>
+      </c>
+      <c r="F32" s="54"/>
+      <c r="G32" s="166" t="s">
+        <v>80</v>
+      </c>
+      <c r="H32" s="144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
+        <v>45425</v>
+      </c>
+      <c r="B33" s="41">
+        <f t="shared" si="5"/>
+        <v>45425</v>
+      </c>
+      <c r="C33" s="154">
+        <v>0.375</v>
+      </c>
+      <c r="D33" s="57"/>
+      <c r="E33" s="93"/>
+      <c r="F33" s="53"/>
+      <c r="G33" s="168" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="92">
+        <v>45426</v>
+      </c>
+      <c r="B34" s="41">
+        <f t="shared" si="5"/>
+        <v>45426</v>
+      </c>
+      <c r="C34" s="154">
+        <v>0.375</v>
+      </c>
+      <c r="D34" s="57"/>
+      <c r="E34" s="93"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="168" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="27" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="92">
+        <v>45428</v>
+      </c>
+      <c r="B35" s="41">
+        <f t="shared" si="5"/>
+        <v>45428</v>
+      </c>
+      <c r="C35" s="154">
+        <v>0.375</v>
+      </c>
+      <c r="D35" s="57"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="53"/>
+      <c r="G35" s="168" t="s">
+        <v>32</v>
+      </c>
+      <c r="H35" s="145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="27" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="92">
+        <v>45429</v>
+      </c>
+      <c r="B36" s="41">
+        <f t="shared" si="5"/>
+        <v>45429</v>
+      </c>
+      <c r="C36" s="154">
+        <v>0.375</v>
+      </c>
+      <c r="D36" s="57"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="53"/>
+      <c r="G36" s="168" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="145" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="94">
+        <v>45432</v>
+      </c>
+      <c r="B37" s="42">
+        <f t="shared" si="5"/>
+        <v>45432</v>
+      </c>
+      <c r="C37" s="54"/>
+      <c r="D37" s="95">
+        <v>45432</v>
+      </c>
+      <c r="E37" s="96">
+        <f>D37</f>
+        <v>45432</v>
+      </c>
+      <c r="F37" s="54"/>
+      <c r="G37" s="166" t="s">
+        <v>50</v>
+      </c>
+      <c r="H37" s="144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>45439</v>
+      </c>
+      <c r="B38" s="4">
+        <f>A38</f>
+        <v>45439</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="75"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="173" t="s">
+        <v>85</v>
+      </c>
+      <c r="H38" s="172"/>
+    </row>
+    <row r="39" spans="1:8" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="94">
+        <v>45442</v>
+      </c>
+      <c r="B39" s="42">
+        <f>A39</f>
+        <v>45442</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="95">
+        <v>45443</v>
+      </c>
+      <c r="E39" s="96">
+        <f>D39</f>
+        <v>45443</v>
+      </c>
+      <c r="F39" s="54"/>
+      <c r="G39" s="166" t="s">
+        <v>61</v>
+      </c>
+      <c r="H39" s="144" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57">
+        <v>45446</v>
+      </c>
+      <c r="B40" s="41">
+        <f t="shared" si="5"/>
+        <v>45446</v>
+      </c>
+      <c r="C40" s="57"/>
+      <c r="D40" s="57">
+        <v>45450</v>
+      </c>
+      <c r="E40" s="41">
+        <f>D40</f>
+        <v>45450</v>
+      </c>
+      <c r="F40" s="57"/>
+      <c r="G40" s="169" t="s">
+        <v>82</v>
+      </c>
+      <c r="H40" s="146"/>
+    </row>
+    <row r="41" spans="1:8" s="27" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="68">
+        <v>45446</v>
+      </c>
+      <c r="B41" s="37">
+        <f t="shared" ref="B41" si="9">A41</f>
+        <v>45446</v>
+      </c>
+      <c r="C41" s="46"/>
+      <c r="D41" s="69">
+        <v>45450</v>
+      </c>
+      <c r="E41" s="70">
+        <f>D41</f>
+        <v>45450</v>
+      </c>
+      <c r="F41" s="46"/>
+      <c r="G41" s="160" t="s">
+        <v>34</v>
+      </c>
+      <c r="H41" s="135"/>
+    </row>
+    <row r="42" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="97">
+        <v>45453</v>
+      </c>
+      <c r="B42" s="38">
+        <f>A42</f>
+        <v>45453</v>
+      </c>
+      <c r="C42" s="55"/>
+      <c r="D42" s="98"/>
+      <c r="E42" s="99"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="204" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" s="205"/>
+    </row>
+    <row r="43" spans="1:8" s="28" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="100">
+        <v>45453</v>
+      </c>
+      <c r="B43" s="38">
+        <f t="shared" ref="B43:B62" si="10">A43</f>
+        <v>45453</v>
+      </c>
+      <c r="C43" s="56"/>
+      <c r="D43" s="101">
+        <v>45455</v>
+      </c>
+      <c r="E43" s="70">
+        <f>D43</f>
+        <v>45455</v>
+      </c>
+      <c r="F43" s="102"/>
+      <c r="G43" s="121" t="s">
+        <v>83</v>
+      </c>
+      <c r="H43" s="135" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" s="27" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="68">
+        <v>45460</v>
+      </c>
+      <c r="B44" s="38">
+        <f t="shared" ref="B44:B45" si="11">A44</f>
+        <v>45460</v>
+      </c>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69">
+        <v>45464</v>
+      </c>
+      <c r="E44" s="70">
+        <f>D44</f>
+        <v>45464</v>
+      </c>
+      <c r="F44" s="46"/>
+      <c r="G44" s="160" t="s">
+        <v>38</v>
+      </c>
+      <c r="H44" s="147"/>
+    </row>
+    <row r="45" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="68">
+        <v>45460</v>
+      </c>
+      <c r="B45" s="38">
+        <f t="shared" si="11"/>
+        <v>45460</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="69">
+        <v>45464</v>
+      </c>
+      <c r="E45" s="110">
+        <f>D45</f>
+        <v>45464</v>
+      </c>
+      <c r="F45" s="60"/>
+      <c r="G45" s="122" t="s">
+        <v>39</v>
+      </c>
+      <c r="H45" s="148" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" s="27" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="68">
+        <v>45461</v>
+      </c>
+      <c r="B46" s="38">
+        <f t="shared" si="10"/>
+        <v>45461</v>
+      </c>
+      <c r="C46" s="46"/>
+      <c r="D46" s="69"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="160" t="s">
+        <v>37</v>
+      </c>
+      <c r="H46" s="147" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" s="27" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="92">
+        <v>45462</v>
+      </c>
+      <c r="B47" s="93">
+        <f t="shared" si="10"/>
+        <v>45462</v>
+      </c>
+      <c r="C47" s="57"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="103"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="201" t="s">
+        <v>51</v>
+      </c>
+      <c r="H47" s="202"/>
+    </row>
+    <row r="48" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="104">
+        <v>45463</v>
+      </c>
+      <c r="B48" s="106">
+        <f t="shared" si="10"/>
+        <v>45463</v>
+      </c>
+      <c r="C48" s="155">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D48" s="105"/>
+      <c r="E48" s="106"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="187" t="s">
+        <v>36</v>
+      </c>
+      <c r="H48" s="188"/>
+    </row>
+    <row r="49" spans="1:8" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="104">
+        <v>45463</v>
+      </c>
+      <c r="B49" s="106">
+        <f t="shared" si="10"/>
+        <v>45463</v>
+      </c>
+      <c r="C49" s="155">
+        <v>0.5625</v>
+      </c>
+      <c r="D49" s="105"/>
+      <c r="E49" s="106"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="199" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="200"/>
+    </row>
+    <row r="50" spans="1:8" s="27" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="107">
+        <v>45467</v>
+      </c>
+      <c r="B50" s="38">
+        <f t="shared" si="10"/>
+        <v>45467</v>
+      </c>
+      <c r="C50" s="59"/>
+      <c r="D50" s="108"/>
+      <c r="E50" s="108"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="122" t="s">
+        <v>53</v>
+      </c>
+      <c r="H50" s="149" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="68">
+        <v>45467</v>
+      </c>
+      <c r="B51" s="38">
+        <f t="shared" si="10"/>
+        <v>45467</v>
+      </c>
+      <c r="C51" s="46"/>
+      <c r="D51" s="69">
+        <v>45471</v>
+      </c>
+      <c r="E51" s="70">
+        <f>D51</f>
+        <v>45471</v>
+      </c>
+      <c r="F51" s="46"/>
+      <c r="G51" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="H51" s="147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="92">
+        <v>45474</v>
+      </c>
+      <c r="B52" s="93">
+        <f t="shared" si="10"/>
+        <v>45474</v>
+      </c>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92">
+        <v>45476</v>
+      </c>
+      <c r="E52" s="93">
+        <f>D52</f>
+        <v>45476</v>
+      </c>
+      <c r="F52" s="53"/>
+      <c r="G52" s="168" t="s">
+        <v>63</v>
+      </c>
+      <c r="H52" s="145" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="73">
+        <v>45475</v>
+      </c>
+      <c r="B53" s="38">
+        <f t="shared" ref="B53" si="12">A53</f>
+        <v>45475</v>
+      </c>
+      <c r="C53" s="62"/>
+      <c r="D53" s="74"/>
+      <c r="E53" s="99"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H53" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="31">
+        <v>45476</v>
+      </c>
+      <c r="B54" s="157">
+        <f t="shared" si="10"/>
+        <v>45476</v>
+      </c>
+      <c r="C54" s="156">
+        <v>0.5625</v>
+      </c>
+      <c r="D54" s="32"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="32"/>
+      <c r="G54" s="203" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" s="203"/>
+    </row>
+    <row r="55" spans="1:8" s="19" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>45477</v>
+      </c>
+      <c r="B55" s="38">
+        <f t="shared" ref="B55" si="13">A55</f>
+        <v>45477</v>
+      </c>
+      <c r="C55" s="7">
+        <v>0.5625</v>
+      </c>
+      <c r="D55" s="6"/>
+      <c r="E55" s="75"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="161" t="s">
+        <v>40</v>
+      </c>
+      <c r="H55" s="134" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" s="26" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="31">
+        <v>45481</v>
+      </c>
+      <c r="B56" s="38">
+        <f t="shared" si="10"/>
+        <v>45481</v>
+      </c>
+      <c r="C56" s="61"/>
+      <c r="D56" s="32"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="170" t="s">
+        <v>41</v>
+      </c>
+      <c r="H56" s="151" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="73">
+        <v>45482</v>
+      </c>
+      <c r="B57" s="38">
+        <f t="shared" si="10"/>
+        <v>45482</v>
+      </c>
+      <c r="C57" s="62"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="161" t="s">
+        <v>75</v>
+      </c>
+      <c r="H57" s="150" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>45482</v>
+      </c>
+      <c r="B58" s="38">
+        <f t="shared" ref="B58" si="14">A58</f>
+        <v>45482</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="75"/>
+      <c r="F58" s="114" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10">
-        <v>43709</v>
-      </c>
-      <c r="C2" s="11"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="10">
-        <v>43719</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="10">
-        <v>43723</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="10">
-        <v>43734</v>
-      </c>
-      <c r="C4" s="11">
-        <v>0.75</v>
-      </c>
-      <c r="D4" s="10">
-        <v>43734</v>
-      </c>
-      <c r="E4" s="12">
-        <v>0.875</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="G58" s="161" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" s="25" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="94">
+        <v>45483</v>
+      </c>
+      <c r="B59" s="42">
+        <f t="shared" si="10"/>
+        <v>45483</v>
+      </c>
+      <c r="C59" s="54"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="113"/>
+      <c r="F59" s="54"/>
+      <c r="G59" s="191" t="s">
+        <v>43</v>
+      </c>
+      <c r="H59" s="192"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="73">
+        <v>45484</v>
+      </c>
+      <c r="B60" s="38">
+        <f t="shared" ref="B60" si="15">A60</f>
+        <v>45484</v>
+      </c>
+      <c r="C60" s="62"/>
+      <c r="D60" s="74"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="111"/>
+      <c r="G60" s="161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H60" s="150" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>45485</v>
+      </c>
+      <c r="B61" s="38">
+        <f t="shared" si="10"/>
+        <v>45485</v>
+      </c>
+      <c r="C61" s="7"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="75"/>
+      <c r="F61" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" s="161" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="136" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="12" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="29">
+        <v>45488</v>
+      </c>
+      <c r="B62" s="158">
+        <f t="shared" si="10"/>
+        <v>45488</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="21">
+        <v>45527</v>
+      </c>
+      <c r="E62" s="158">
+        <f t="shared" si="3"/>
+        <v>45527</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="181" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
-        <v>43747</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="13">
-        <v>43758</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="8"/>
+      <c r="H62" s="182"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="115"/>
+      <c r="B63" s="125"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="116"/>
+      <c r="E63" s="43"/>
+      <c r="F63" s="117"/>
+      <c r="G63" s="123"/>
+      <c r="H63" s="152"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:H61">
+    <sortCondition ref="A5:A61"/>
+  </sortState>
+  <mergeCells count="15">
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="A22:H22"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G54:H54"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G27:H27"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A38 A41 A52:D52 A53 A55:A57 A59:A60">
+    <cfRule type="cellIs" dxfId="6" priority="88" stopIfTrue="1" operator="equal">
+      <formula>#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C62">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>A62="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F21 F24:F39 F41:F42 F57:F62">
+    <cfRule type="expression" dxfId="4" priority="36">
+      <formula>D5="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>C44="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46:F49">
+    <cfRule type="expression" dxfId="2" priority="93">
+      <formula>D46="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F51:F53">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>D51="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F55">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>D55="x"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="3">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsches Datum!" error="Bitte geben Sie das Datum in der Form dd.mm.jjjj an!" sqref="A42 D5:E21 D24:E43 D45:E49 C44:E44 D51:E53 D55:E62" xr:uid="{00000000-0002-0000-0000-000000000000}">
+      <formula1>1</formula1>
+      <formula2>365245</formula2>
+    </dataValidation>
+    <dataValidation type="time" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Falsche Uhrzeit!" error="Bitte geben Sie die Zeit in der Form _x000a_hh:mm an!" sqref="C5:C21 F5:F21 C24:C49 F24:F49 F51:F53 C51:C53 F55:F62 C55:C61" xr:uid="{00000000-0002-0000-0000-000001000000}">
+      <formula1>0</formula1>
+      <formula2>0.999305555555556</formula2>
+    </dataValidation>
+    <dataValidation type="date" showInputMessage="1" showErrorMessage="1" errorTitle="Falsches Datum angegeben" error="Bitte geben Sie das Datum in der Form dd.mm.jjjj ein" sqref="A24:A41 A5:A21 A43:A49 A51:A53 A55:A62" xr:uid="{00000000-0002-0000-0000-000002000000}">
+      <formula1>1</formula1>
+      <formula2>365245</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.62992125984251968" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="5" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="01798ea2-1ffb-4636-a61f-f4a9df2da4ed" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6912469d-c709-41e9-b965-92fa075e4c11">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101006F4B0922F67F0B47927F12865363591A" ma:contentTypeVersion="13" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="6c410baf6570525d0ebc602f98f9ae33">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6912469d-c709-41e9-b965-92fa075e4c11" xmlns:ns3="01798ea2-1ffb-4636-a61f-f4a9df2da4ed" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="656322c27c12f5c4a056e5f642beefcd" ns2:_="" ns3:_="">
+    <xsd:import namespace="6912469d-c709-41e9-b965-92fa075e4c11"/>
+    <xsd:import namespace="01798ea2-1ffb-4636-a61f-f4a9df2da4ed"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="6912469d-c709-41e9-b965-92fa075e4c11" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:description="" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Bildmarkierungen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="d5c701fe-77dd-4083-9833-430355757285" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="18" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="19" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="20" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="01798ea2-1ffb-4636-a61f-f4a9df2da4ed" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="12" nillable="true" ma:displayName="Freigegeben für" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="13" nillable="true" ma:displayName="Freigegeben für - Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{d24cab24-9ad1-4f25-97ae-1291b3e3a402}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="01798ea2-1ffb-4636-a61f-f4a9df2da4ed">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Inhaltstyp"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Titel"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C6BCA5A-4011-4A87-8361-17522EE149BF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6912469d-c709-41e9-b965-92fa075e4c11"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="01798ea2-1ffb-4636-a61f-f4a9df2da4ed"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A606459E-7420-41B7-983F-F4E3C376A511}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6912469d-c709-41e9-b965-92fa075e4c11"/>
+    <ds:schemaRef ds:uri="01798ea2-1ffb-4636-a61f-f4a9df2da4ed"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9122316C-CBA5-4269-AEA3-889DBF1E61A3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>